--- a/data/politics.xlsx
+++ b/data/politics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678F47B1-A44D-A54C-93B2-0F559F797A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAC3A67-4EA1-A24A-A26B-03D1D9A8B21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="500" windowWidth="27520" windowHeight="17500" xr2:uid="{4A66C03D-01AA-2F40-ABC0-F292AADB9C73}"/>
   </bookViews>
@@ -84,12 +84,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;h3&gt;區域立委  選舉政見&lt;/h3&gt; &lt;br&gt;
+    <t>&lt;div class="flex flex-row flex-wrap"&gt;
+&lt;div class="w-full md:w-1/2"&gt;
+&lt;h3&gt;區域立委  選舉政見&lt;/h3&gt; &lt;br&gt;
  &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-002.png" alt=""
-        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+        class=" object-fit rounded-xl w-full  md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+&lt;/div&gt;
+&lt;div class="w-full md:w-1/2"&gt;
 &lt;h3&gt;議員 選舉政見&lt;/h3&gt; &lt;br&gt;
  &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-004.png" alt=""
-        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;</t>
+        class=" object-fit rounded-xl w-full  md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+&lt;/div&gt;
+&lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="160">
+    <row r="2" spans="1:3" ht="256">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
